--- a/extends/PHPExcel/product.xlsx
+++ b/extends/PHPExcel/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -26,10 +26,16 @@
     <t>条形码</t>
   </si>
   <si>
-    <t>进价</t>
-  </si>
-  <si>
-    <t>售卖数</t>
+    <t>进价1</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>进价2</t>
+  </si>
+  <si>
+    <t>进价3</t>
   </si>
   <si>
     <t>下架原因</t>
@@ -50,13 +56,31 @@
     <t>原价</t>
   </si>
   <si>
-    <t>V0</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
+    <t>V01</t>
+  </si>
+  <si>
+    <t>V02</t>
+  </si>
+  <si>
+    <t>V03</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>V13</t>
+  </si>
+  <si>
+    <t>V21</t>
+  </si>
+  <si>
+    <t>V22</t>
+  </si>
+  <si>
+    <t>V23</t>
   </si>
   <si>
     <t>库存</t>
@@ -69,6 +93,9 @@
   </si>
   <si>
     <t>供应商</t>
+  </si>
+  <si>
+    <t>单位</t>
   </si>
   <si>
     <t>来源国</t>
@@ -120,12 +147,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="H:MM:SS\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0_);[RED]\(0\)"/>
-    <numFmt numFmtId="168" formatCode="0.00_);[RED]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.00_);[RED]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="H:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -133,6 +159,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,6 +175,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -155,19 +196,6 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,19 +241,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,23 +262,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,7 +282,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in 常规 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -272,13 +292,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y65536"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.89671361502347"/>
   </cols>
@@ -296,73 +316,103 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
